--- a/Code/Results/Cases/Case_9_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.47033949747694</v>
+        <v>13.87582244586423</v>
       </c>
       <c r="C2">
-        <v>9.226790273137629</v>
+        <v>9.844257907364543</v>
       </c>
       <c r="D2">
-        <v>4.642147004021573</v>
+        <v>4.694317103316964</v>
       </c>
       <c r="E2">
-        <v>28.29505528121337</v>
+        <v>28.32379545912084</v>
       </c>
       <c r="F2">
-        <v>24.77236763060604</v>
+        <v>23.45413281915427</v>
       </c>
       <c r="G2">
-        <v>34.52737822729334</v>
+        <v>31.72875302117392</v>
       </c>
       <c r="H2">
-        <v>2.521866703403097</v>
+        <v>2.543953409474307</v>
       </c>
       <c r="I2">
-        <v>2.639235372656884</v>
+        <v>2.547261605445692</v>
       </c>
       <c r="J2">
-        <v>11.40130530204544</v>
+        <v>11.2680132602694</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.04758327912715</v>
       </c>
       <c r="M2">
-        <v>12.93628400047361</v>
+        <v>10.83914203219313</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.85708985065365</v>
       </c>
       <c r="P2">
-        <v>13.1659694110385</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.85773830289953</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.49474289483614</v>
+        <v>12.98706667278409</v>
       </c>
       <c r="C3">
-        <v>8.694900963016179</v>
+        <v>9.18893422956795</v>
       </c>
       <c r="D3">
-        <v>4.572142022557939</v>
+        <v>4.594279214423073</v>
       </c>
       <c r="E3">
-        <v>26.40647951678989</v>
+        <v>26.44904215351327</v>
       </c>
       <c r="F3">
-        <v>23.97412050794115</v>
+        <v>22.78924417515386</v>
       </c>
       <c r="G3">
-        <v>33.2960514839699</v>
+        <v>30.76049662935005</v>
       </c>
       <c r="H3">
-        <v>2.2687652723884</v>
+        <v>2.301462983436499</v>
       </c>
       <c r="I3">
-        <v>2.832712319133655</v>
+        <v>2.713582433193372</v>
       </c>
       <c r="J3">
-        <v>11.25599830024404</v>
+        <v>11.13295449046655</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.08733515468306</v>
       </c>
       <c r="M3">
-        <v>12.12334198727073</v>
+        <v>10.61681581539351</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.06477680409497</v>
       </c>
       <c r="P3">
-        <v>13.30004938042127</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.0021229720072</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.85701248111948</v>
+        <v>12.40580404324425</v>
       </c>
       <c r="C4">
-        <v>8.355812227033585</v>
+        <v>8.769021179273263</v>
       </c>
       <c r="D4">
-        <v>4.52753252569899</v>
+        <v>4.531075096584628</v>
       </c>
       <c r="E4">
-        <v>25.18031506059093</v>
+        <v>25.23161672569647</v>
       </c>
       <c r="F4">
-        <v>23.47765934967159</v>
+        <v>22.37566215017632</v>
       </c>
       <c r="G4">
-        <v>32.52517801504278</v>
+        <v>30.15813778407782</v>
       </c>
       <c r="H4">
-        <v>2.108034192270462</v>
+        <v>2.147367900985192</v>
       </c>
       <c r="I4">
-        <v>2.956278491788007</v>
+        <v>2.820249988568014</v>
       </c>
       <c r="J4">
-        <v>11.168231028801</v>
+        <v>11.04906927264607</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.10853837946138</v>
       </c>
       <c r="M4">
-        <v>11.59592183075474</v>
+        <v>10.49759205591895</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.55067219114443</v>
       </c>
       <c r="P4">
-        <v>13.38309949838581</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.09149547006161</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.59294540308273</v>
+        <v>12.15324882100957</v>
       </c>
       <c r="C5">
-        <v>8.223010713371606</v>
+        <v>8.602326873947927</v>
       </c>
       <c r="D5">
-        <v>4.509805815797223</v>
+        <v>4.505905931641391</v>
       </c>
       <c r="E5">
-        <v>24.66354974237016</v>
+        <v>24.71851421807426</v>
       </c>
       <c r="F5">
-        <v>23.26205979781849</v>
+        <v>22.19468048940989</v>
       </c>
       <c r="G5">
-        <v>32.18610457451374</v>
+        <v>29.89049933817639</v>
       </c>
       <c r="H5">
-        <v>2.040960355104301</v>
+        <v>2.083051220876915</v>
       </c>
       <c r="I5">
-        <v>3.010883290068788</v>
+        <v>2.868398817692885</v>
       </c>
       <c r="J5">
-        <v>11.12885813041678</v>
+        <v>11.01092272848135</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.10900519051087</v>
       </c>
       <c r="M5">
-        <v>11.37277622753256</v>
+        <v>10.44774462063518</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.33319215248999</v>
       </c>
       <c r="P5">
-        <v>13.41509382111196</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.12648696165713</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.54032986178253</v>
+        <v>12.10257900481523</v>
       </c>
       <c r="C6">
-        <v>8.211168611973834</v>
+        <v>8.58515737270918</v>
       </c>
       <c r="D6">
-        <v>4.507892943272158</v>
+        <v>4.502958184313904</v>
       </c>
       <c r="E6">
-        <v>24.57639082619476</v>
+        <v>24.63199490707099</v>
       </c>
       <c r="F6">
-        <v>23.21158777624352</v>
+        <v>22.15078513598922</v>
       </c>
       <c r="G6">
-        <v>32.10322542913471</v>
+        <v>29.82099351593482</v>
       </c>
       <c r="H6">
-        <v>2.029483054608276</v>
+        <v>2.072058123495698</v>
       </c>
       <c r="I6">
-        <v>3.023927098152278</v>
+        <v>2.881017721708507</v>
       </c>
       <c r="J6">
-        <v>11.11747673393528</v>
+        <v>11.00000869889738</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.10004894644622</v>
       </c>
       <c r="M6">
-        <v>11.33392916128359</v>
+        <v>10.43266685817933</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.29537692293622</v>
       </c>
       <c r="P6">
-        <v>13.41792940407239</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.13033299139092</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.83021166769181</v>
+        <v>12.37490602679168</v>
       </c>
       <c r="C7">
-        <v>8.381859077323449</v>
+        <v>8.787116440939405</v>
       </c>
       <c r="D7">
-        <v>4.530190664145288</v>
+        <v>4.536418203055426</v>
       </c>
       <c r="E7">
-        <v>25.17251899710535</v>
+        <v>25.22336179187679</v>
       </c>
       <c r="F7">
-        <v>23.43532438712846</v>
+        <v>22.31317153368662</v>
       </c>
       <c r="G7">
-        <v>32.4494280194283</v>
+        <v>30.16313472430766</v>
       </c>
       <c r="H7">
-        <v>2.106443329234783</v>
+        <v>2.145438600289559</v>
       </c>
       <c r="I7">
-        <v>2.96738852436831</v>
+        <v>2.833691807871257</v>
       </c>
       <c r="J7">
-        <v>11.15447309809136</v>
+        <v>10.98614523473185</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.07427208137021</v>
       </c>
       <c r="M7">
-        <v>11.58928882937797</v>
+        <v>10.46877023314244</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.53788562849596</v>
       </c>
       <c r="P7">
-        <v>13.37677743354794</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.08409871372511</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.11376035609536</v>
+        <v>13.53261902811915</v>
       </c>
       <c r="C8">
-        <v>9.080420961462279</v>
+        <v>9.631278506546003</v>
       </c>
       <c r="D8">
-        <v>4.622246557977888</v>
+        <v>4.672360737860121</v>
       </c>
       <c r="E8">
-        <v>27.6565053010986</v>
+        <v>27.68828482416404</v>
       </c>
       <c r="F8">
-        <v>24.44844891608971</v>
+        <v>23.10578989076662</v>
       </c>
       <c r="G8">
-        <v>34.01595111544177</v>
+        <v>31.55523856863408</v>
       </c>
       <c r="H8">
-        <v>2.434810668265468</v>
+        <v>2.459252016678925</v>
       </c>
       <c r="I8">
-        <v>2.718483061208346</v>
+        <v>2.621591663176499</v>
       </c>
       <c r="J8">
-        <v>11.33372657258238</v>
+        <v>11.04320131187132</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.0006508760523</v>
       </c>
       <c r="M8">
-        <v>12.65734201292466</v>
+        <v>10.70215529152139</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.56553323430554</v>
       </c>
       <c r="P8">
-        <v>13.20332156030426</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.89268738688593</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.36309919101507</v>
+        <v>15.57837333030872</v>
       </c>
       <c r="C9">
-        <v>10.3050872524248</v>
+        <v>11.13161320722891</v>
       </c>
       <c r="D9">
-        <v>4.784438959111876</v>
+        <v>4.909753549061936</v>
       </c>
       <c r="E9">
-        <v>32.00490592292766</v>
+        <v>32.00255592704455</v>
       </c>
       <c r="F9">
-        <v>26.44233304634509</v>
+        <v>24.75878061678319</v>
       </c>
       <c r="G9">
-        <v>37.07615061350485</v>
+        <v>34.04579000293342</v>
       </c>
       <c r="H9">
-        <v>3.038832211306174</v>
+        <v>3.03703791615509</v>
       </c>
       <c r="I9">
-        <v>2.698977653184143</v>
+        <v>2.737964485515351</v>
       </c>
       <c r="J9">
-        <v>11.71958038197628</v>
+        <v>11.34977978314508</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.90760379721535</v>
       </c>
       <c r="M9">
-        <v>14.5336029163924</v>
+        <v>11.35773808133468</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.39057852241624</v>
       </c>
       <c r="P9">
-        <v>12.8801909143718</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.54045482201452</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.77759694589234</v>
+        <v>16.84220893610703</v>
       </c>
       <c r="C10">
-        <v>11.10902396152792</v>
+        <v>12.06329429982604</v>
       </c>
       <c r="D10">
-        <v>4.917091996932784</v>
+        <v>5.111920484932977</v>
       </c>
       <c r="E10">
-        <v>34.00522601172636</v>
+        <v>33.97604057453864</v>
       </c>
       <c r="F10">
-        <v>27.66545262038703</v>
+        <v>25.64808844070638</v>
       </c>
       <c r="G10">
-        <v>38.88105831224677</v>
+        <v>35.89178890277212</v>
       </c>
       <c r="H10">
-        <v>3.422843076641048</v>
+        <v>3.400832677544981</v>
       </c>
       <c r="I10">
-        <v>3.006713780147888</v>
+        <v>3.000667494488745</v>
       </c>
       <c r="J10">
-        <v>11.9410893605483</v>
+        <v>11.24428205239861</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.70376903779551</v>
       </c>
       <c r="M10">
-        <v>15.72890583005709</v>
+        <v>11.76868084001783</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.52366973822703</v>
       </c>
       <c r="P10">
-        <v>12.61883001423728</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.25578719681931</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.95525599446647</v>
+        <v>16.99558535231566</v>
       </c>
       <c r="C11">
-        <v>11.11056186045577</v>
+        <v>11.94289583051866</v>
       </c>
       <c r="D11">
-        <v>5.171109255008248</v>
+        <v>5.438494729644976</v>
       </c>
       <c r="E11">
-        <v>27.35751720648766</v>
+        <v>27.31896138440186</v>
       </c>
       <c r="F11">
-        <v>26.62929584704994</v>
+        <v>24.44139905022731</v>
       </c>
       <c r="G11">
-        <v>36.86162699904182</v>
+        <v>34.83198153282869</v>
       </c>
       <c r="H11">
-        <v>3.876884947945191</v>
+        <v>3.852977574651681</v>
       </c>
       <c r="I11">
-        <v>3.072428348998773</v>
+        <v>3.055203459881429</v>
       </c>
       <c r="J11">
-        <v>11.4850455795347</v>
+        <v>10.31243358761933</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.96901732557349</v>
       </c>
       <c r="M11">
-        <v>15.84972949532786</v>
+        <v>11.21304663347817</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.5846367035296</v>
       </c>
       <c r="P11">
-        <v>12.30778653032588</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.01073288272249</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.84656248463</v>
+        <v>16.91100406446996</v>
       </c>
       <c r="C12">
-        <v>10.92106260726997</v>
+        <v>11.64668443115861</v>
       </c>
       <c r="D12">
-        <v>5.371530305904184</v>
+        <v>5.673609360269316</v>
       </c>
       <c r="E12">
-        <v>21.32246694309847</v>
+        <v>21.28094875274267</v>
       </c>
       <c r="F12">
-        <v>25.53360945616382</v>
+        <v>23.34053845813508</v>
       </c>
       <c r="G12">
-        <v>34.8471782250822</v>
+        <v>33.3751684668977</v>
       </c>
       <c r="H12">
-        <v>4.810573156501826</v>
+        <v>4.791887218043495</v>
       </c>
       <c r="I12">
-        <v>3.067709399958511</v>
+        <v>3.049369776949993</v>
       </c>
       <c r="J12">
-        <v>11.067817467415</v>
+        <v>9.755402802971302</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.46768098455346</v>
       </c>
       <c r="M12">
-        <v>15.71625145608023</v>
+        <v>10.7133367441175</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.43044726828773</v>
       </c>
       <c r="P12">
-        <v>12.13370016268229</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.90455171241017</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.48166240326278</v>
+        <v>16.62207678632133</v>
       </c>
       <c r="C13">
-        <v>10.60275120866401</v>
+        <v>11.23945404876874</v>
       </c>
       <c r="D13">
-        <v>5.545034346474426</v>
+        <v>5.845350392598581</v>
       </c>
       <c r="E13">
-        <v>15.22625752184763</v>
+        <v>15.18672867704001</v>
       </c>
       <c r="F13">
-        <v>24.24933386087253</v>
+        <v>22.23053784465488</v>
       </c>
       <c r="G13">
-        <v>32.57587661239712</v>
+        <v>31.23093752428813</v>
       </c>
       <c r="H13">
-        <v>5.93521971855952</v>
+        <v>5.923145718405594</v>
       </c>
       <c r="I13">
-        <v>3.012529423531943</v>
+        <v>3.003447881432412</v>
       </c>
       <c r="J13">
-        <v>10.63308810664733</v>
+        <v>9.494163834477606</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.08682858843875</v>
       </c>
       <c r="M13">
-        <v>15.37178096230756</v>
+        <v>10.21428675159035</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.10611756530996</v>
       </c>
       <c r="P13">
-        <v>12.04377299447323</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.88302161552354</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.1006385617195</v>
+        <v>16.3185147125478</v>
       </c>
       <c r="C14">
-        <v>10.32637648643895</v>
+        <v>10.90652662466778</v>
       </c>
       <c r="D14">
-        <v>5.656746136826792</v>
+        <v>5.937997838520741</v>
       </c>
       <c r="E14">
-        <v>10.90847175069051</v>
+        <v>10.87201802972374</v>
       </c>
       <c r="F14">
-        <v>23.24516266673704</v>
+        <v>21.42838303278486</v>
       </c>
       <c r="G14">
-        <v>30.83411401433047</v>
+        <v>29.39522251821442</v>
       </c>
       <c r="H14">
-        <v>6.791760301796458</v>
+        <v>6.783865985242785</v>
       </c>
       <c r="I14">
-        <v>2.953054156055678</v>
+        <v>2.955285343830463</v>
       </c>
       <c r="J14">
-        <v>10.31792067157452</v>
+        <v>9.421167003676036</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.86362526635953</v>
       </c>
       <c r="M14">
-        <v>15.03096142704632</v>
+        <v>9.860108955209155</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.79750407415458</v>
       </c>
       <c r="P14">
-        <v>12.02062255799868</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.90274342999362</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.9440572866935</v>
+        <v>16.19180895055335</v>
       </c>
       <c r="C15">
-        <v>10.23786013918837</v>
+        <v>10.80647109657227</v>
       </c>
       <c r="D15">
-        <v>5.67783975280675</v>
+        <v>5.947315871624411</v>
       </c>
       <c r="E15">
-        <v>9.840104125216783</v>
+        <v>9.806378983943425</v>
       </c>
       <c r="F15">
-        <v>22.94773417694347</v>
+        <v>21.21498551283687</v>
       </c>
       <c r="G15">
-        <v>30.33185684917468</v>
+        <v>28.79459381525113</v>
       </c>
       <c r="H15">
-        <v>6.988271528985656</v>
+        <v>6.981676517048022</v>
       </c>
       <c r="I15">
-        <v>2.928222687489886</v>
+        <v>2.936019843530651</v>
       </c>
       <c r="J15">
-        <v>10.234007971062</v>
+        <v>9.44704838047933</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.82253357810179</v>
       </c>
       <c r="M15">
-        <v>14.89975299624406</v>
+        <v>9.766571173298653</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.68212538797529</v>
       </c>
       <c r="P15">
-        <v>12.02867601150073</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.9200116265746</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.40087585953857</v>
+        <v>15.740711586155</v>
       </c>
       <c r="C16">
-        <v>9.96511522446699</v>
+        <v>10.54801118160072</v>
       </c>
       <c r="D16">
-        <v>5.587609086903456</v>
+        <v>5.798330687598983</v>
       </c>
       <c r="E16">
-        <v>9.714348323286695</v>
+        <v>9.701786797138269</v>
       </c>
       <c r="F16">
-        <v>22.60841207818284</v>
+        <v>21.16148563287087</v>
       </c>
       <c r="G16">
-        <v>29.87757624310506</v>
+        <v>27.72518561785092</v>
       </c>
       <c r="H16">
-        <v>6.711594045379782</v>
+        <v>6.709165170708033</v>
       </c>
       <c r="I16">
-        <v>2.812280328770495</v>
+        <v>2.842307762529884</v>
       </c>
       <c r="J16">
-        <v>10.21410609826308</v>
+        <v>9.858216971601268</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.99711043622299</v>
       </c>
       <c r="M16">
-        <v>14.45409054593717</v>
+        <v>9.760752799447543</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.30367360757201</v>
       </c>
       <c r="P16">
-        <v>12.15157117437096</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.03280378555288</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.18699852713949</v>
+        <v>15.54861808078263</v>
       </c>
       <c r="C17">
-        <v>9.905688522141679</v>
+        <v>10.52212020177914</v>
       </c>
       <c r="D17">
-        <v>5.456770656937026</v>
+        <v>5.639620365450222</v>
       </c>
       <c r="E17">
-        <v>12.0091058509421</v>
+        <v>12.00650246154456</v>
       </c>
       <c r="F17">
-        <v>22.89732921687094</v>
+        <v>21.53185621211351</v>
       </c>
       <c r="G17">
-        <v>30.48251748892329</v>
+        <v>28.0056319660973</v>
       </c>
       <c r="H17">
-        <v>5.992026722456139</v>
+        <v>5.991398282387459</v>
       </c>
       <c r="I17">
-        <v>2.75422643891027</v>
+        <v>2.794821523047192</v>
       </c>
       <c r="J17">
-        <v>10.36738602625772</v>
+        <v>10.17633188435867</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.25014889485945</v>
       </c>
       <c r="M17">
-        <v>14.29444413856465</v>
+        <v>9.931021744574723</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.17087155982414</v>
       </c>
       <c r="P17">
-        <v>12.25704936530865</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.1138279560882</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.25871440093596</v>
+        <v>15.59125218324707</v>
       </c>
       <c r="C18">
-        <v>10.01318777923976</v>
+        <v>10.69761382061456</v>
       </c>
       <c r="D18">
-        <v>5.279379566921482</v>
+        <v>5.448818195041085</v>
       </c>
       <c r="E18">
-        <v>16.801722121674</v>
+        <v>16.80054961019023</v>
       </c>
       <c r="F18">
-        <v>23.7847234891801</v>
+        <v>22.37494264752802</v>
       </c>
       <c r="G18">
-        <v>32.11603195373493</v>
+        <v>29.3735027003145</v>
       </c>
       <c r="H18">
-        <v>4.878625999404895</v>
+        <v>4.878209152166532</v>
       </c>
       <c r="I18">
-        <v>2.73956521619032</v>
+        <v>2.780997863343222</v>
       </c>
       <c r="J18">
-        <v>10.69652069890085</v>
+        <v>10.53941004260498</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.63880225989281</v>
       </c>
       <c r="M18">
-        <v>14.37519544431731</v>
+        <v>10.30259986455805</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.2565543277375</v>
       </c>
       <c r="P18">
-        <v>12.37466929982614</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.18911045336272</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.52274277561336</v>
+        <v>15.79347062513829</v>
       </c>
       <c r="C19">
-        <v>10.29610579936522</v>
+        <v>11.07662760694773</v>
       </c>
       <c r="D19">
-        <v>5.097371207672984</v>
+        <v>5.260211736512844</v>
       </c>
       <c r="E19">
-        <v>23.22537349390623</v>
+        <v>23.2207503647999</v>
       </c>
       <c r="F19">
-        <v>25.01396395995102</v>
+        <v>23.48420079522802</v>
       </c>
       <c r="G19">
-        <v>34.32826275459535</v>
+        <v>31.33189875886465</v>
       </c>
       <c r="H19">
-        <v>3.762493269608146</v>
+        <v>3.759974711007577</v>
       </c>
       <c r="I19">
-        <v>2.775192344432572</v>
+        <v>2.811838810239597</v>
       </c>
       <c r="J19">
-        <v>11.12305325129832</v>
+        <v>10.92871503918474</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.08971950074853</v>
       </c>
       <c r="M19">
-        <v>14.64161814206055</v>
+        <v>10.78091753408417</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.51449003775618</v>
       </c>
       <c r="P19">
-        <v>12.50442135753576</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.26377178080279</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.3602564937494</v>
+        <v>16.48258798528058</v>
       </c>
       <c r="C20">
-        <v>10.96897719315867</v>
+        <v>11.91498812016994</v>
       </c>
       <c r="D20">
-        <v>4.893233423672584</v>
+        <v>5.063471574013978</v>
       </c>
       <c r="E20">
-        <v>33.449808854349</v>
+        <v>33.42968949648969</v>
       </c>
       <c r="F20">
-        <v>27.23313948427716</v>
+        <v>25.38021152130787</v>
       </c>
       <c r="G20">
-        <v>38.2093874066554</v>
+        <v>34.98041926395785</v>
       </c>
       <c r="H20">
-        <v>3.318966948268213</v>
+        <v>3.30373678007266</v>
       </c>
       <c r="I20">
-        <v>2.93521980622371</v>
+        <v>2.946744832907063</v>
       </c>
       <c r="J20">
-        <v>11.8413813182189</v>
+        <v>11.39988325468246</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.72427069549268</v>
       </c>
       <c r="M20">
-        <v>15.41260150790404</v>
+        <v>11.62035739424619</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.24206706600977</v>
       </c>
       <c r="P20">
-        <v>12.66683892095525</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.32365843719411</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.47782341521969</v>
+        <v>17.39376087269669</v>
       </c>
       <c r="C21">
-        <v>11.61935354715453</v>
+        <v>12.55710157321446</v>
       </c>
       <c r="D21">
-        <v>4.959252411073145</v>
+        <v>5.223443166416462</v>
       </c>
       <c r="E21">
-        <v>36.26138817347353</v>
+        <v>36.2107753174256</v>
       </c>
       <c r="F21">
-        <v>28.45656164452773</v>
+        <v>25.95443861823731</v>
       </c>
       <c r="G21">
-        <v>40.10149241561709</v>
+        <v>38.09869072117923</v>
       </c>
       <c r="H21">
-        <v>3.664292848605867</v>
+        <v>3.626226392661695</v>
       </c>
       <c r="I21">
-        <v>3.179692139367844</v>
+        <v>3.144626251954253</v>
       </c>
       <c r="J21">
-        <v>12.11896251572866</v>
+        <v>10.57222764102187</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.53178204333197</v>
       </c>
       <c r="M21">
-        <v>16.36144681283361</v>
+        <v>11.90211985759434</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.04972727264076</v>
       </c>
       <c r="P21">
-        <v>12.50744530236765</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.09175171129689</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.17263904238521</v>
+        <v>17.95737558115427</v>
       </c>
       <c r="C22">
-        <v>11.98363836192296</v>
+        <v>12.901604482427</v>
       </c>
       <c r="D22">
-        <v>5.007268311336722</v>
+        <v>5.337003526207982</v>
       </c>
       <c r="E22">
-        <v>37.58874135926051</v>
+        <v>37.51836583628394</v>
       </c>
       <c r="F22">
-        <v>29.1950999201681</v>
+        <v>26.2589403442391</v>
       </c>
       <c r="G22">
-        <v>41.22728775319373</v>
+        <v>40.11947337365255</v>
       </c>
       <c r="H22">
-        <v>3.867899494265666</v>
+        <v>3.815295234792349</v>
       </c>
       <c r="I22">
-        <v>3.329750398601577</v>
+        <v>3.263730432458354</v>
       </c>
       <c r="J22">
-        <v>12.28497565539447</v>
+        <v>9.99243633825151</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.38655124956465</v>
       </c>
       <c r="M22">
-        <v>16.93710386823136</v>
+        <v>12.06985892490596</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.53132285186831</v>
       </c>
       <c r="P22">
-        <v>12.3997916325675</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.93683335726946</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.82440360937364</v>
+        <v>17.68855394577089</v>
       </c>
       <c r="C23">
-        <v>11.76549366091709</v>
+        <v>12.71008570209238</v>
       </c>
       <c r="D23">
-        <v>4.978197314398234</v>
+        <v>5.265680344171007</v>
       </c>
       <c r="E23">
-        <v>36.88624231874037</v>
+        <v>36.82731060248355</v>
       </c>
       <c r="F23">
-        <v>28.84033011751422</v>
+        <v>26.18362030706958</v>
       </c>
       <c r="G23">
-        <v>40.69651475606194</v>
+        <v>38.93592607278501</v>
       </c>
       <c r="H23">
-        <v>3.760250121419483</v>
+        <v>3.716064367836735</v>
       </c>
       <c r="I23">
-        <v>3.246689043829512</v>
+        <v>3.196805652159647</v>
       </c>
       <c r="J23">
-        <v>12.21043823739026</v>
+        <v>10.4199127972686</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.50538472221946</v>
       </c>
       <c r="M23">
-        <v>16.63532590717501</v>
+        <v>12.02953543414606</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.29175931180312</v>
       </c>
       <c r="P23">
-        <v>12.46459709766427</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.02917661257103</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.41159008868408</v>
+        <v>16.52707521831757</v>
       </c>
       <c r="C24">
-        <v>10.95465076635702</v>
+        <v>11.90964421654876</v>
       </c>
       <c r="D24">
-        <v>4.870597517128031</v>
+        <v>5.037239791639362</v>
       </c>
       <c r="E24">
-        <v>34.11358731964737</v>
+        <v>34.09298902925661</v>
       </c>
       <c r="F24">
-        <v>27.41641233777115</v>
+        <v>25.55146791550422</v>
       </c>
       <c r="G24">
-        <v>38.54154225675121</v>
+        <v>35.27291722005299</v>
       </c>
       <c r="H24">
-        <v>3.344140062127797</v>
+        <v>3.32852241777379</v>
       </c>
       <c r="I24">
-        <v>2.932651111628815</v>
+        <v>2.941280277230546</v>
       </c>
       <c r="J24">
-        <v>11.90870806918277</v>
+        <v>11.46788483458191</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.81219635316283</v>
       </c>
       <c r="M24">
-        <v>15.43894508862555</v>
+        <v>11.71007558578435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.26801025225451</v>
       </c>
       <c r="P24">
-        <v>12.69922876089879</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.34581398150932</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.75206974400511</v>
+        <v>15.02860759843043</v>
       </c>
       <c r="C25">
-        <v>10.02759390032022</v>
+        <v>10.7948869974914</v>
       </c>
       <c r="D25">
-        <v>4.747403269407499</v>
+        <v>4.850424087656595</v>
       </c>
       <c r="E25">
-        <v>30.88258652384991</v>
+        <v>30.89029297402611</v>
       </c>
       <c r="F25">
-        <v>25.84592228805237</v>
+        <v>24.28642974508319</v>
       </c>
       <c r="G25">
-        <v>36.14857320025382</v>
+        <v>33.17170725252378</v>
       </c>
       <c r="H25">
-        <v>2.878516333869264</v>
+        <v>2.884419629977962</v>
       </c>
       <c r="I25">
-        <v>2.585348477358447</v>
+        <v>2.643773650896269</v>
       </c>
       <c r="J25">
-        <v>11.59121114154325</v>
+        <v>11.31479830132024</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.91099531324765</v>
       </c>
       <c r="M25">
-        <v>14.0443090632132</v>
+        <v>11.14214728365675</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.92281921877965</v>
       </c>
       <c r="P25">
-        <v>12.95549986491858</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.63010798838791</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
